--- a/Lift (Task 2)/Check_List.xlsx
+++ b/Lift (Task 2)/Check_List.xlsx
@@ -1,21 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Чек ліст" sheetId="1" r:id="rId1"/>
+    <sheet name="Матриця траснабілітації" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+  <si>
+    <t>Системне тестування</t>
+  </si>
+  <si>
+    <t>Usability тестування</t>
+  </si>
+  <si>
+    <t>Тестування безпеки</t>
+  </si>
+  <si>
+    <t>Тип тестування</t>
+  </si>
+  <si>
+    <t>Перевірка</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Коментарій</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Ліфт приїхав.</t>
+  </si>
+  <si>
+    <t>1.1 Ліфт визвано.</t>
+  </si>
+  <si>
+    <t>1.2 Ліфт приїхав.</t>
+  </si>
+  <si>
+    <t>1.3 Двері відкрились.</t>
+  </si>
+  <si>
+    <t>1.4 Зайшли в ліфт.</t>
+  </si>
+  <si>
+    <t>1.6 Ліфт розігнався.</t>
+  </si>
+  <si>
+    <t>1.7 Ліфт зупинився.</t>
+  </si>
+  <si>
+    <t>Тестування виклику ліфту</t>
+  </si>
+  <si>
+    <t>з верхніх поверхів</t>
+  </si>
+  <si>
+    <t>ОК.</t>
+  </si>
+  <si>
+    <t>Тестування перевезення ліфтом людей</t>
+  </si>
+  <si>
+    <t>1.5 *поверх* вибраний.</t>
+  </si>
+  <si>
+    <t>1.8 Двері відкрилися на *поверсі*.</t>
+  </si>
+  <si>
+    <t>1.1 Ліфт визвано з поверху *поверх*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестування перевезення людей </t>
+  </si>
+  <si>
+    <t>на декілька поверхів.</t>
+  </si>
+  <si>
+    <t>1.5 *поверхи* вибрані.</t>
+  </si>
+  <si>
+    <t>1.8 Двері відкрилися на *поверсі[0]*.</t>
+  </si>
+  <si>
+    <t>1.9 Ліфт розігнався.</t>
+  </si>
+  <si>
+    <t>1.10 Ліфт зупинився.</t>
+  </si>
+  <si>
+    <t>1.11 Двері відкрилися на *поверсі[1]*.</t>
+  </si>
+  <si>
+    <t>1.12 Ліфт розігнався.</t>
+  </si>
+  <si>
+    <t>1.13 Ліфт зупинився.</t>
+  </si>
+  <si>
+    <t>1.14 Двері відкрилися на *поверсі[2]*.</t>
+  </si>
+  <si>
+    <t>1.1 Ліфт викликано</t>
+  </si>
+  <si>
+    <t>Функціональне</t>
+  </si>
+  <si>
+    <t>тестування</t>
+  </si>
+  <si>
+    <t>Тестування затримання дверей</t>
+  </si>
+  <si>
+    <t>1.1 Ліфт визвано</t>
+  </si>
+  <si>
+    <t>1.5 Двері закрились</t>
+  </si>
+  <si>
+    <t>1.6 Кнопку відкрити двері натиснуто</t>
+  </si>
+  <si>
+    <t>1.7 Двері відкрились</t>
+  </si>
+  <si>
+    <t>OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кнопок</t>
+  </si>
+  <si>
+    <t>Тестування зручності натискання</t>
+  </si>
+  <si>
+    <t>Тест-кейс 1</t>
+  </si>
+  <si>
+    <t>Доставляє людей до певного поверху</t>
+  </si>
+  <si>
+    <t>Тестування вмикання світла в ліфті</t>
+  </si>
+  <si>
+    <t>1.3 Двері відкрились</t>
+  </si>
+  <si>
+    <t>1.4 Зайшли в ліфт</t>
+  </si>
+  <si>
+    <t>1.5 Світло ввімкнулось.</t>
+  </si>
+  <si>
+    <t>Викликається з будь-якого поверху</t>
+  </si>
+  <si>
+    <t>Має кнопку відкриття дверей</t>
+  </si>
+  <si>
+    <t>Має кнопку аварійного звязку</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> при екстренній ситуації</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестування виклику допомоги </t>
+  </si>
+  <si>
+    <t>1.3 Допомога прийшла.</t>
+  </si>
+  <si>
+    <t>1.1 Ліфт зупинився не на поверсі.</t>
+  </si>
+  <si>
+    <t>1.2 Кнопку аварійного виклику натиснуто.</t>
+  </si>
+  <si>
+    <t>Тестування екстренної зупинки ліфта</t>
+  </si>
+  <si>
+    <t>Має кнопки всіх поверхів</t>
+  </si>
+  <si>
+    <t>Performance тестування</t>
+  </si>
+  <si>
+    <t>Тестуємо максимальну кількість людей</t>
+  </si>
+  <si>
+    <t>що може знаходитись в ліфті</t>
+  </si>
+  <si>
+    <t>1.4 Багато людей зайшло в ліфт</t>
+  </si>
+  <si>
+    <t>1.5 Ліфт не їде(перегруз)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,15 +222,105 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -40,25 +328,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +563,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +600,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +635,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +808,711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="91.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="40"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="40"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="43"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="44"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="B62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="30"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="2" max="41" man="1"/>
+    <brk id="3" max="41" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lift (Task 2)/Check_List.xlsx
+++ b/Lift (Task 2)/Check_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Чек ліст" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Системне тестування</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Тест</t>
   </si>
   <si>
-    <t>Ліфт приїхав.</t>
-  </si>
-  <si>
     <t>1.1 Ліфт визвано.</t>
   </si>
   <si>
@@ -207,6 +204,12 @@
   </si>
   <si>
     <t>1.5 Ліфт не їде(перегруз)</t>
+  </si>
+  <si>
+    <t>fdfsdfds</t>
+  </si>
+  <si>
+    <t>fdssdfsfsdf</t>
   </si>
 </sst>
 </file>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +848,7 @@
       <c r="A2" s="33"/>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
@@ -853,13 +856,13 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="24"/>
     </row>
@@ -867,7 +870,7 @@
       <c r="A4" s="34"/>
       <c r="B4" s="16"/>
       <c r="C4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="24"/>
@@ -875,10 +878,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="20"/>
@@ -886,13 +889,13 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -900,7 +903,7 @@
       <c r="A7" s="34"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
@@ -909,7 +912,7 @@
       <c r="A8" s="34"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="24"/>
@@ -918,7 +921,7 @@
       <c r="A9" s="34"/>
       <c r="B9" s="16"/>
       <c r="C9" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
@@ -927,7 +930,7 @@
       <c r="A10" s="34"/>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
@@ -937,34 +940,34 @@
         <v>0</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
@@ -973,7 +976,7 @@
       <c r="A14" s="34"/>
       <c r="B14" s="16"/>
       <c r="C14" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
@@ -982,7 +985,7 @@
       <c r="A15" s="34"/>
       <c r="B15" s="16"/>
       <c r="C15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
@@ -991,7 +994,7 @@
       <c r="A16" s="34"/>
       <c r="B16" s="8"/>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="20"/>
@@ -1000,7 +1003,7 @@
       <c r="A17" s="34"/>
       <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20"/>
@@ -1009,7 +1012,7 @@
       <c r="A18" s="34"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20"/>
@@ -1018,7 +1021,7 @@
       <c r="A19" s="34"/>
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="20"/>
@@ -1027,7 +1030,7 @@
       <c r="A20" s="34"/>
       <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="20"/>
@@ -1036,7 +1039,7 @@
       <c r="A21" s="34"/>
       <c r="B21" s="8"/>
       <c r="C21" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="20"/>
@@ -1044,10 +1047,10 @@
     <row r="22" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="20"/>
@@ -1055,13 +1058,13 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="20"/>
     </row>
@@ -1069,7 +1072,7 @@
       <c r="A24" s="34"/>
       <c r="B24" s="8"/>
       <c r="C24" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="20"/>
@@ -1078,7 +1081,7 @@
       <c r="A25" s="34"/>
       <c r="B25" s="8"/>
       <c r="C25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="20"/>
@@ -1087,7 +1090,7 @@
       <c r="A26" s="34"/>
       <c r="B26" s="8"/>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="20"/>
@@ -1096,7 +1099,7 @@
       <c r="A27" s="34"/>
       <c r="B27" s="8"/>
       <c r="C27" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20"/>
@@ -1105,7 +1108,7 @@
       <c r="A28" s="34"/>
       <c r="B28" s="8"/>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20"/>
@@ -1114,7 +1117,7 @@
       <c r="A29" s="34"/>
       <c r="B29" s="8"/>
       <c r="C29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20"/>
@@ -1122,10 +1125,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="20"/>
@@ -1134,7 +1137,7 @@
       <c r="A31" s="34"/>
       <c r="B31" s="1"/>
       <c r="C31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="20"/>
@@ -1143,7 +1146,7 @@
       <c r="A32" s="34"/>
       <c r="B32" s="1"/>
       <c r="C32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="20"/>
@@ -1152,10 +1155,10 @@
       <c r="A33" s="34"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="26"/>
     </row>
@@ -1163,7 +1166,7 @@
       <c r="A34" s="34"/>
       <c r="B34" s="1"/>
       <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="26"/>
@@ -1172,7 +1175,7 @@
       <c r="A35" s="34"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="26"/>
@@ -1181,7 +1184,7 @@
       <c r="A36" s="34"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="26"/>
@@ -1198,10 +1201,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="26"/>
@@ -1209,10 +1212,10 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="26"/>
@@ -1221,7 +1224,7 @@
       <c r="A40" s="30"/>
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="3"/>
@@ -1229,7 +1232,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
@@ -1237,13 +1240,18 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
-      <c r="B42" s="25"/>
+      <c r="B42" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
       <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,31 +1281,31 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
       <c r="B53" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="2"/>
       <c r="C54" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="2"/>
       <c r="C55" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="2"/>
       <c r="C56" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,62 +1314,62 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="29"/>
       <c r="B58" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
       <c r="B59" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="B61" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
       <c r="B63" s="8"/>
       <c r="C63" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="2"/>
       <c r="C64" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -1393,7 +1401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1406,7 +1414,7 @@
     <row r="1" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -1424,31 +1432,31 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="10"/>
     </row>
